--- a/sriramModel-nelson-melancholic-patientID_13-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.008492862771053</v>
+        <v>2.001927362541736</v>
       </c>
       <c r="C2">
-        <v>2.015659531644462</v>
+        <v>2.017045453898934</v>
       </c>
       <c r="D2">
-        <v>2.01024862690495</v>
+        <v>2.018139024603262</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.022346557765672</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.00090480565667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.017952992463793</v>
+        <v>2.003962821393175</v>
       </c>
       <c r="C3">
-        <v>2.032534729498424</v>
+        <v>2.035506554367905</v>
       </c>
       <c r="D3">
-        <v>2.021100798670644</v>
+        <v>2.037653101744417</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.046359215998695</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.002063094555621</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.028330282421987</v>
+        <v>2.006105692676035</v>
       </c>
       <c r="C4">
-        <v>2.050567921216031</v>
+        <v>2.055291546865255</v>
       </c>
       <c r="D4">
-        <v>2.032540442229672</v>
+        <v>2.058470743279163</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.071941178284959</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.003466581943174</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.039577005712423</v>
+        <v>2.008355465909682</v>
       </c>
       <c r="C5">
-        <v>2.06970361984506</v>
+        <v>2.076313099688041</v>
       </c>
       <c r="D5">
-        <v>2.044553074654027</v>
+        <v>2.080523711388993</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.09899983289515</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.005107451758169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.051647732216463</v>
+        <v>2.010711811782507</v>
       </c>
       <c r="C6">
-        <v>2.089888486070545</v>
+        <v>2.098488084776436</v>
       </c>
       <c r="D6">
-        <v>2.057125785470461</v>
+        <v>2.103746939164298</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.127446805877251</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.006978342119353</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.06449924773121</v>
+        <v>2.013174582565895</v>
       </c>
       <c r="C7">
-        <v>2.111071292391399</v>
+        <v>2.121737482295159</v>
       </c>
       <c r="D7">
-        <v>2.070247221823957</v>
+        <v>2.128078535447653</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.157197756833307</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.009072349103974</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.078090475296024</v>
+        <v>2.015743810459273</v>
       </c>
       <c r="C8">
-        <v>2.133202889762747</v>
+        <v>2.145986276956103</v>
       </c>
       <c r="D8">
-        <v>2.083907576701876</v>
+        <v>2.153459682229162</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.188172275660879</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.011383002030103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.092382398975032</v>
+        <v>2.018419711600806</v>
       </c>
       <c r="C9">
-        <v>2.156236177331508</v>
+        <v>2.171163333207722</v>
       </c>
       <c r="D9">
-        <v>2.098098580456434</v>
+        <v>2.179834609765394</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.220293822755357</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.013904266069346</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.107337990315808</v>
+        <v>2.021202688970887</v>
       </c>
       <c r="C10">
-        <v>2.180126075879846</v>
+        <v>2.197201264271736</v>
       </c>
       <c r="D10">
-        <v>2.112813495846699</v>
+        <v>2.207150553999493</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.25348964414616</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.016630532477756</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.122922137690263</v>
+        <v>2.024093335956361</v>
       </c>
       <c r="C11">
-        <v>2.204829505643884</v>
+        <v>2.224036302864411</v>
       </c>
       <c r="D11">
-        <v>2.128047116819775</v>
+        <v>2.235357706340062</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.28769066144772</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.019556610442474</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.139101578717469</v>
+        <v>2.027092439865423</v>
       </c>
       <c r="C12">
-        <v>2.230305369203007</v>
+        <v>2.251608186334633</v>
       </c>
       <c r="D12">
-        <v>2.143795771243644</v>
+        <v>2.264409170001902</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.322831362469609</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.022677721825021</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.155844835955191</v>
+        <v>2.030200986672119</v>
       </c>
       <c r="C13">
-        <v>2.256514540173199</v>
+        <v>2.279860034550807</v>
       </c>
       <c r="D13">
-        <v>2.160057327796042</v>
+        <v>2.294260912904344</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.358849698345712</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.025989495415945</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.173122156040745</v>
+        <v>2.033420166970905</v>
       </c>
       <c r="C14">
-        <v>2.283419858482083</v>
+        <v>2.308738179643011</v>
       </c>
       <c r="D14">
-        <v>2.176831207203454</v>
+        <v>2.324871717038262</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.395686983383899</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.02948796022291</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.190905452456031</v>
+        <v>2.036751381148361</v>
       </c>
       <c r="C15">
-        <v>2.310986133050075</v>
+        <v>2.338192052587387</v>
       </c>
       <c r="D15">
-        <v>2.194118398011772</v>
+        <v>2.356203132499559</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.433287794242433</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.033169543221658</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.209168252087626</v>
+        <v>2.040196245854121</v>
       </c>
       <c r="C16">
-        <v>2.339180152761638</v>
+        <v>2.368174078157046</v>
       </c>
       <c r="D16">
-        <v>2.21192147705095</v>
+        <v>2.388219436407065</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.471599868695922</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.037031061333279</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.227885645753376</v>
+        <v>2.043756603838774</v>
       </c>
       <c r="C17">
-        <v>2.367970706673486</v>
+        <v>2.398639545651816</v>
       </c>
       <c r="D17">
-        <v>2.230244634733803</v>
+        <v>2.420887596116017</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.510573985501704</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.041069719972916</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.247034242870826</v>
+        <v>2.047434532920142</v>
       </c>
       <c r="C18">
-        <v>2.397328614488736</v>
+        <v>2.429546482784392</v>
       </c>
       <c r="D18">
-        <v>2.249093705297429</v>
+        <v>2.454177230072798</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.550163921289806</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.045283109136419</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.266592130448272</v>
+        <v>2.051232356417891</v>
       </c>
       <c r="C19">
-        <v>2.427226768409069</v>
+        <v>2.460855544611192</v>
       </c>
       <c r="D19">
-        <v>2.268476202053158</v>
+        <v>2.488060572040864</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.590326307338293</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.049669202228322</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.286538836589928</v>
+        <v>2.055152654786378</v>
       </c>
       <c r="C20">
-        <v>2.457640187582947</v>
+        <v>2.492529872846891</v>
       </c>
       <c r="D20">
-        <v>2.288401357655747</v>
+        <v>2.522512436646387</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.631020565409901</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.054226356805759</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.306855298721518</v>
+        <v>2.059198278429313</v>
       </c>
       <c r="C21">
-        <v>2.488546086484652</v>
+        <v>2.52453503078168</v>
       </c>
       <c r="D21">
-        <v>2.308880169329512</v>
+        <v>2.557510190270373</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.672208826345262</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.058953312535579</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.327523836759654</v>
+        <v>2.06337236255619</v>
       </c>
       <c r="C22">
-        <v>2.519923958696514</v>
+        <v>2.5568388904386</v>
       </c>
       <c r="D22">
-        <v>2.329925448895327</v>
+        <v>2.593033716927255</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.713855783055045</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.063849196586186</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.348528131471525</v>
+        <v>2.067678344199299</v>
       </c>
       <c r="C23">
-        <v>2.551755677729173</v>
+        <v>2.589411541185423</v>
       </c>
       <c r="D23">
-        <v>2.351551877319061</v>
+        <v>2.629065412507369</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.755928674415602</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.068913525431367</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.369853208300218</v>
+        <v>2.072119981170633</v>
       </c>
       <c r="C24">
-        <v>2.584025616694594</v>
+        <v>2.622225199877716</v>
       </c>
       <c r="D24">
-        <v>2.373776063348437</v>
+        <v>2.665590134486927</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.798397172585602</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.074146207898802</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.391485426963355</v>
+        <v>2.076701372580682</v>
       </c>
       <c r="C25">
-        <v>2.616720788867112</v>
+        <v>2.655254120065692</v>
       </c>
       <c r="D25">
-        <v>2.39661660560914</v>
+        <v>2.702595225472457</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2.841233356416777</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.07954755487409</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.413412477172977</v>
+        <v>2.081426982894749</v>
       </c>
       <c r="C26">
-        <v>2.649831011407679</v>
+        <v>2.688474522678034</v>
       </c>
       <c r="D26">
-        <v>2.420094157285852</v>
+        <v>2.740070457972416</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.884411625620794</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.085118286538995</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.435623380873181</v>
+        <v>2.086301668149892</v>
       </c>
       <c r="C27">
-        <v>2.683349094830281</v>
+        <v>2.721864529489794</v>
       </c>
       <c r="D27">
-        <v>2.444231492210593</v>
+        <v>2.778008060845654</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2.927908646278585</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.090859540982296</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.458108501446826</v>
+        <v>2.091330705520817</v>
       </c>
       <c r="C28">
-        <v>2.717271061102609</v>
+        <v>2.7554041086077</v>
       </c>
       <c r="D28">
-        <v>2.469053570808797</v>
+        <v>2.816402681148382</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2.971703294188409</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.096772891617085</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.480859560408418</v>
+        <v>2.096519826877824</v>
       </c>
       <c r="C29">
-        <v>2.751596393660788</v>
+        <v>2.789075020931586</v>
       </c>
       <c r="D29">
-        <v>2.494587603900558</v>
+        <v>2.855251398360602</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.01577660945658</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.102860359903671</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.503869662179264</v>
+        <v>2.101875254949187</v>
       </c>
       <c r="C30">
-        <v>2.786328323031574</v>
+        <v>2.822860779860516</v>
       </c>
       <c r="D30">
-        <v>2.520863111811645</v>
+        <v>2.894553709494943</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.060111744577605</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.109124432942207</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.527133327630663</v>
+        <v>2.107403746346714</v>
       </c>
       <c r="C31">
-        <v>2.821474152219911</v>
+        <v>2.856746617151202</v>
       </c>
       <c r="D31">
-        <v>2.547911975604914</v>
+        <v>2.934311529252608</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.104693943854478</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.115568089790202</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.550646537187188</v>
+        <v>2.113112638370072</v>
       </c>
       <c r="C32">
-        <v>2.857045626513089</v>
+        <v>2.890719459465179</v>
       </c>
       <c r="D32">
-        <v>2.575768476489551</v>
+        <v>2.974529196370321</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.149510513275743</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.122194822799703</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.574406784409304</v>
+        <v>2.119009901797491</v>
       </c>
       <c r="C33">
-        <v>2.893059352832507</v>
+        <v>2.924767916941337</v>
       </c>
       <c r="D33">
-        <v>2.604469318599568</v>
+        <v>3.015213459477764</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3.194550789544908</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2.129008667310549</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.598413141120322</v>
+        <v>2.12510420120786</v>
       </c>
       <c r="C34">
-        <v>2.929537274221575</v>
+        <v>2.958882277745914</v>
       </c>
       <c r="D34">
-        <v>2.634053629363109</v>
+        <v>3.056373490998041</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.239806138293533</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.136014240988254</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.622666335313715</v>
+        <v>2.131404960028713</v>
       </c>
       <c r="C35">
-        <v>2.966507205359731</v>
+        <v>2.993054522872432</v>
       </c>
       <c r="D35">
-        <v>2.664562930618678</v>
+        <v>3.098020873611832</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3.285269940257157</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.143216777036034</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.647168843281415</v>
+        <v>2.137922439033515</v>
       </c>
       <c r="C36">
-        <v>3.004003435106543</v>
+        <v>3.027278345820251</v>
       </c>
       <c r="D36">
-        <v>2.696041072506047</v>
+        <v>3.140169597662484</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.330937582452298</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2.15062217193467</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.671924997638845</v>
+        <v>2.144667821812911</v>
       </c>
       <c r="C37">
-        <v>3.042067401668425</v>
+        <v>3.061549187521097</v>
       </c>
       <c r="D37">
-        <v>2.728534121032023</v>
+        <v>3.182836049541888</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.376806473221836</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.158237042949385</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.696941113196017</v>
+        <v>2.151653312116393</v>
       </c>
       <c r="C38">
-        <v>3.080748444899115</v>
+        <v>3.095864286917492</v>
       </c>
       <c r="D38">
-        <v>2.762090189157579</v>
+        <v>3.226038992087787</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3.422876054445504</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2.166068778440899</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.722225632949359</v>
+        <v>2.158892245968816</v>
       </c>
       <c r="C39">
-        <v>3.120104637922363</v>
+        <v>3.130222740340119</v>
       </c>
       <c r="D39">
-        <v>2.796759200394636</v>
+        <v>3.269799541246002</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.469147811416511</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.174125612585547</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.747789296841585</v>
+        <v>2.166399212817602</v>
       </c>
       <c r="C40">
-        <v>3.160203696129865</v>
+        <v>3.164625588821082</v>
       </c>
       <c r="D40">
-        <v>2.832592573391515</v>
+        <v>3.314141109774905</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.515625311252723</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2.182416710685208</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.773645336363488</v>
+        <v>2.174190204356259</v>
       </c>
       <c r="C41">
-        <v>3.201123954659363</v>
+        <v>3.199075914969219</v>
       </c>
       <c r="D41">
-        <v>2.869642816070525</v>
+        <v>3.359089352120868</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3.562314234816697</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2.190952243809299</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.799809698571161</v>
+        <v>2.18228277663277</v>
       </c>
       <c r="C42">
-        <v>3.242955394386204</v>
+        <v>3.233578961653121</v>
       </c>
       <c r="D42">
-        <v>2.907963018743511</v>
+        <v>3.404672088032965</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3.609222408881434</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.199743505490368</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.826301303653492</v>
+        <v>2.190696236953834</v>
       </c>
       <c r="C43">
-        <v>3.285800679520195</v>
+        <v>3.268142274366359</v>
       </c>
       <c r="D43">
-        <v>2.947606237589231</v>
+        <v>3.450919199043389</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3.656359862439087</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2.208803037684059</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.853142340804063</v>
+        <v>2.199451862324546</v>
       </c>
       <c r="C44">
-        <v>3.329776144869729</v>
+        <v>3.302775858424078</v>
       </c>
       <c r="D44">
-        <v>2.988624763231336</v>
+        <v>3.497862500846433</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3.703738880465486</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2.218144742823099</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.880358607847215</v>
+        <v>2.208573133098391</v>
       </c>
       <c r="C45">
-        <v>3.375012634406227</v>
+        <v>3.337492379235524</v>
       </c>
       <c r="D45">
-        <v>3.031069274084821</v>
+        <v>3.545535558514378</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3.751374055593576</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.227784066135895</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.907979900800665</v>
+        <v>2.218086025740836</v>
       </c>
       <c r="C46">
-        <v>3.421656044258057</v>
+        <v>3.37230737908457</v>
       </c>
       <c r="D46">
-        <v>3.074987880835268</v>
+        <v>3.593973476774666</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.799282361017183</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.237738184107804</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.936040460279741</v>
+        <v>2.228019334739425</v>
       </c>
       <c r="C47">
-        <v>3.469867357371927</v>
+        <v>3.407239530279438</v>
       </c>
       <c r="D47">
-        <v>3.120425076793548</v>
+        <v>3.643212634916699</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.847483220659152</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.24802617371657</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.964579482339954</v>
+        <v>2.23840504532165</v>
       </c>
       <c r="C48">
-        <v>3.519821878647211</v>
+        <v>3.442310928989179</v>
       </c>
       <c r="D48">
-        <v>3.16742061870715</v>
+        <v>3.693290392876399</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3.895998575759215</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2.258669299771779</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.993641701874926</v>
+        <v>2.249278767843812</v>
       </c>
       <c r="C49">
-        <v>3.571707293674522</v>
+        <v>3.477547413752033</v>
       </c>
       <c r="D49">
-        <v>3.216008373139618</v>
+        <v>3.74424468410627</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3.944852965539972</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.26969129950416</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.023278056829819</v>
+        <v>2.260680209735718</v>
       </c>
       <c r="C50">
-        <v>3.625720100118734</v>
+        <v>3.512978957706505</v>
       </c>
       <c r="D50">
-        <v>3.266215173888542</v>
+        <v>3.7961135861149</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3.994073602122922</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.281118640991839</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.053546441048442</v>
+        <v>2.272653767561696</v>
       </c>
       <c r="C51">
-        <v>3.682059933220966</v>
+        <v>3.548640092562617</v>
       </c>
       <c r="D51">
-        <v>3.318059744698858</v>
+        <v>3.848934799974584</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4.043690443492483</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2.292980973987553</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.084512552053058</v>
+        <v>2.285249153510295</v>
       </c>
       <c r="C52">
-        <v>3.740921382909053</v>
+        <v>3.584570392334359</v>
       </c>
       <c r="D52">
-        <v>3.371551747200717</v>
+        <v>3.902745147261063</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>4.093736258397564</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2.305311487909276</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.116250938477243</v>
+        <v>2.298522192530938</v>
       </c>
       <c r="C53">
-        <v>3.80248350789917</v>
+        <v>3.620815143789739</v>
       </c>
       <c r="D53">
-        <v>3.426691062055283</v>
+        <v>3.957579923233169</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>4.144246931937114</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.318147607596897</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.148847140598256</v>
+        <v>2.312535644548208</v>
       </c>
       <c r="C54">
-        <v>3.866900529090736</v>
+        <v>3.657427319443757</v>
       </c>
       <c r="D54">
-        <v>3.48346777113882</v>
+        <v>4.013474134265509</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>4.195263938852625</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2.331531697002349</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.182399841553857</v>
+        <v>2.327360400570963</v>
       </c>
       <c r="C55">
-        <v>3.934290890844974</v>
+        <v>3.69446941564726</v>
       </c>
       <c r="D55">
-        <v>3.541862381620306</v>
+        <v>4.070463312286487</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4.246836440695571</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2.345512087087771</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.217022037929188</v>
+        <v>2.343076401457525</v>
       </c>
       <c r="C56">
-        <v>4.004723046197436</v>
+        <v>3.732014148103472</v>
       </c>
       <c r="D56">
-        <v>3.601845868469247</v>
+        <v>4.128582387112148</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>4.299020745158487</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2.360143834307179</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.252842139148206</v>
+        <v>2.359773816858785</v>
       </c>
       <c r="C57">
-        <v>4.078203730488971</v>
+        <v>3.770144950700648</v>
       </c>
       <c r="D57">
-        <v>3.66337998605142</v>
+        <v>4.187864377998018</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4.351879574633031</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2.375489546454371</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.290005006716631</v>
+        <v>2.377554181131075</v>
       </c>
       <c r="C58">
-        <v>4.154671561004696</v>
+        <v>3.808956709917771</v>
       </c>
       <c r="D58">
-        <v>3.72641788177768</v>
+        <v>4.248339088213742</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>4.405481191738006</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2.391620300850369</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3.328672781244092</v>
+        <v>2.396531669689632</v>
       </c>
       <c r="C59">
-        <v>4.233997748138993</v>
+        <v>3.848556523719665</v>
       </c>
       <c r="D59">
-        <v>3.79090497513971</v>
+        <v>4.310031800221348</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4.459898606354707</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2.408616724269954</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.36902526329173</v>
+        <v>2.416834181841496</v>
       </c>
       <c r="C60">
-        <v>4.315994250434738</v>
+        <v>3.889064439004896</v>
       </c>
       <c r="D60">
-        <v>3.856780047493694</v>
+        <v>4.37296200935511</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4.51520865449254</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2.426570148687271</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.411259506118919</v>
+        <v>2.438604159248885</v>
       </c>
       <c r="C61">
-        <v>4.400427954983151</v>
+        <v>3.930614280658776</v>
       </c>
       <c r="D61">
-        <v>3.923976475498342</v>
+        <v>4.437142279343298</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>4.571491049295368</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>2.445583802266804</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.455588148511535</v>
+        <v>2.461998955160016</v>
       </c>
       <c r="C62">
-        <v>4.487038110789652</v>
+        <v>3.973354152006502</v>
       </c>
       <c r="D62">
-        <v>3.992423535432942</v>
+        <v>4.502577189449729</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>4.628827336232288</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2.46577397488553</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.502235882443404</v>
+        <v>2.487190284671349</v>
       </c>
       <c r="C63">
-        <v>4.57555380997561</v>
+        <v>4.017446679042678</v>
       </c>
       <c r="D63">
-        <v>4.06204770690703</v>
+        <v>4.569262465426778</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>4.687299711359129</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2.4872709994653</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.551433357126902</v>
+        <v>2.514362326379398</v>
       </c>
       <c r="C64">
-        <v>4.665708856675124</v>
+        <v>4.063068633800826</v>
       </c>
       <c r="D64">
-        <v>4.132773911939434</v>
+        <v>4.637184314539487</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>4.746989707324813</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2.510219817428236</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.603407848164198</v>
+        <v>2.543707832853507</v>
       </c>
       <c r="C65">
-        <v>4.75725250873732</v>
+        <v>4.110409553460061</v>
       </c>
       <c r="D65">
-        <v>4.204526637549869</v>
+        <v>4.706319004704895</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>4.807976702145758</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2.534779775112892</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.658370284741881</v>
+        <v>2.575421580967485</v>
       </c>
       <c r="C66">
-        <v>4.849955796794835</v>
+        <v>4.159668919512146</v>
       </c>
       <c r="D66">
-        <v>4.277230905045074</v>
+        <v>4.776632713564097</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>4.870336232481556</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2.561123148750882</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.716498852393209</v>
+        <v>2.609690604847165</v>
       </c>
       <c r="C67">
-        <v>4.943614030062962</v>
+        <v>4.211051309989848</v>
       </c>
       <c r="D67">
-        <v>4.350813065291288</v>
+        <v>4.84808166012318</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>4.934138100615443</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>2.589431742258277</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.777920421116785</v>
+        <v>2.646681033607207</v>
       </c>
       <c r="C68">
-        <v>5.038046548270184</v>
+        <v>4.264758944831804</v>
       </c>
       <c r="D68">
-        <v>4.425201414840303</v>
+        <v>4.9206125192794</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>4.999444276770094</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2.619890799838716</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3.842692330740086</v>
+        <v>2.686522174184224</v>
       </c>
       <c r="C69">
-        <v>5.133094832154654</v>
+        <v>4.320981208887893</v>
       </c>
       <c r="D69">
-        <v>4.500326641552143</v>
+        <v>4.994163102433689</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>5.066306625813006</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>2.652679643075164</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.910788136261112</v>
+        <v>2.729289623607885</v>
       </c>
       <c r="C70">
-        <v>5.228619888878971</v>
+        <v>4.379881123817947</v>
       </c>
       <c r="D70">
-        <v>4.576122119363214</v>
+        <v>5.068663273115043</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>5.134764520249115</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2.687958217271101</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.982091098922041</v>
+        <v>2.774990419960063</v>
       </c>
       <c r="C71">
-        <v>5.324499535087846</v>
+        <v>4.441579491631271</v>
       </c>
       <c r="D71">
-        <v>4.652524079329694</v>
+        <v>5.144036054677019</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5.20484243815488</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2.725850872519455</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.056397987256537</v>
+        <v>2.823553880364392</v>
       </c>
       <c r="C72">
-        <v>5.420625919864157</v>
+        <v>4.506138449707128</v>
       </c>
       <c r="D72">
-        <v>4.729471687576321</v>
+        <v>5.220198875737849</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>5.276547683428632</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>2.766428632871369</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.133433267947893</v>
+        <v>2.87483127991287</v>
       </c>
       <c r="C73">
-        <v>5.516903420220109</v>
+        <v>4.57354720555359</v>
       </c>
       <c r="D73">
-        <v>4.806907060221832</v>
+        <v>5.297064896501802</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>5.349868400229814</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2.809693377443875</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.21287097489432</v>
+        <v>2.928605489460339</v>
       </c>
       <c r="C74">
-        <v>5.613246915413116</v>
+        <v>4.643713247529487</v>
       </c>
       <c r="D74">
-        <v>4.884775241222584</v>
+        <v>5.374544357510834</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>5.424772069682627</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2.855568196212758</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.294359714414095</v>
+        <v>2.984608956381543</v>
       </c>
       <c r="C75">
-        <v>5.709580388045525</v>
+        <v>4.716461873597731</v>
       </c>
       <c r="D75">
-        <v>4.963024162484604</v>
+        <v>5.452545897894699</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>5.501204670638825</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2.903897494649915</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4.37754613497655</v>
+        <v>3.042546144083353</v>
       </c>
       <c r="C76">
-        <v>5.805835784863984</v>
+        <v>4.791545201549278</v>
       </c>
       <c r="D76">
-        <v>5.04160459808958</v>
+        <v>5.53097779674355</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>5.579090655023927</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2.954458049793625</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4.462093535863453</v>
+        <v>3.102115782377168</v>
       </c>
       <c r="C77">
-        <v>5.90195207649001</v>
+        <v>4.868659413882185</v>
       </c>
       <c r="D77">
-        <v>5.12047011763944</v>
+        <v>5.60974910232271</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>5.658333824009998</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>3.006979020354286</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4.547694230473102</v>
+        <v>3.16302921953073</v>
       </c>
       <c r="C78">
-        <v>5.997874468604706</v>
+        <v>4.947466916968022</v>
       </c>
       <c r="D78">
-        <v>5.199577038698089</v>
+        <v>5.688770624232259</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>5.7388191091695</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>3.061165799476838</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4.634075946868189</v>
+        <v>3.225023029593884</v>
       </c>
       <c r="C79">
-        <v>6.093553730107534</v>
+        <v>5.027619180312354</v>
       </c>
       <c r="D79">
-        <v>5.278884375550085</v>
+        <v>5.767955774827905</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5.820415168591484</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>3.116723713437366</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.721003513088238</v>
+        <v>3.287865763556431</v>
       </c>
       <c r="C80">
-        <v>6.188945613895429</v>
+        <v>5.108776566779083</v>
       </c>
       <c r="D80">
-        <v>5.35835378078565</v>
+        <v>5.84722125563999</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>5.902977630191288</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>3.173375450082571</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.808277357291134</v>
+        <v>3.351359935666987</v>
       </c>
       <c r="C81">
-        <v>6.284010352968855</v>
+        <v>5.190622961591589</v>
       </c>
       <c r="D81">
-        <v>5.437949476926007</v>
+        <v>5.926487592566307</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5.986352744959044</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3.230872785105463</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.895730195137954</v>
+        <v>3.415340734449508</v>
       </c>
       <c r="C82">
-        <v>6.378712219206619</v>
+        <v>5.272874677010821</v>
       </c>
       <c r="D82">
-        <v>5.517638176690591</v>
+        <v>6.005679529722921</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>6.070381193784019</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>3.289001646062861</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4.983222934208802</v>
+        <v>3.479672852831723</v>
       </c>
       <c r="C83">
-        <v>6.473019135160299</v>
+        <v>5.355284305035006</v>
       </c>
       <c r="D83">
-        <v>5.597388991983044</v>
+        <v>6.084726295398413</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>6.154901796480463</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>3.347582720125191</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.070640469083831</v>
+        <v>3.544246501612754</v>
       </c>
       <c r="C84">
-        <v>6.566902331194219</v>
+        <v>5.437640817340607</v>
       </c>
       <c r="D84">
-        <v>5.677173332872138</v>
+        <v>6.163561756448994</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>6.239754910589073</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>3.40646890056501</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5.15788775157778</v>
+        <v>3.608973311940554</v>
       </c>
       <c r="C85">
-        <v>6.660336041665754</v>
+        <v>5.519767263082381</v>
       </c>
       <c r="D85">
-        <v>5.756964798621682</v>
+        <v>6.242124477299288</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>6.324785367709558</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>3.465541197674041</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5.244886317717407</v>
+        <v>3.673782541678615</v>
       </c>
       <c r="C86">
-        <v>6.753297234821646</v>
+        <v>5.601517098517725</v>
       </c>
       <c r="D86">
-        <v>5.836739063072574</v>
+        <v>6.320357707509553</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>6.409844830111076</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3.524704452884302</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5.331571325519118</v>
+        <v>3.738617855967477</v>
       </c>
       <c r="C87">
-        <v>6.845765371672923</v>
+        <v>5.682770632026572</v>
       </c>
       <c r="D87">
-        <v>5.916473756057172</v>
+        <v>6.398209324158922</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>6.494793799139002</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3.583883128210147</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5.417889088188628</v>
+        <v>3.803434019598897</v>
       </c>
       <c r="C88">
-        <v>6.937722190502893</v>
+        <v>5.763430091278997</v>
       </c>
       <c r="D88">
-        <v>5.996148344725889</v>
+        <v>6.475631574564425</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>6.579502308935647</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>3.643016996813988</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5.503795051969043</v>
+        <v>3.86819512391048</v>
       </c>
       <c r="C89">
-        <v>7.029151513745317</v>
+        <v>5.843416774110304</v>
       </c>
       <c r="D89">
-        <v>6.075744017127011</v>
+        <v>6.552581063033425</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>6.663851198678547</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>3.702058611841692</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.589252153665207</v>
+        <v>3.932872538150343</v>
       </c>
       <c r="C90">
-        <v>7.120039073999215</v>
+        <v>5.922667602954718</v>
       </c>
       <c r="D90">
-        <v>6.155243568152575</v>
+        <v>6.629018511937607</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>6.747732207851028</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>3.760970405737358</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.674229494290843</v>
+        <v>3.99744337219146</v>
       </c>
       <c r="C91">
-        <v>7.210372356792903</v>
+        <v>6.00113235584752</v>
       </c>
       <c r="D91">
-        <v>6.234631289078977</v>
+        <v>6.704908478773435</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>6.831048006960193</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>3.819722564884636</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5.758701270979249</v>
+        <v>4.061889306978867</v>
       </c>
       <c r="C92">
-        <v>7.300140458047487</v>
+        <v>6.078771364296311</v>
       </c>
       <c r="D92">
-        <v>6.313892861674756</v>
+        <v>6.78021926786491</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>6.91371160104897</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>3.878291392964918</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5.842645917251278</v>
+        <v>4.12619565207705</v>
       </c>
       <c r="C93">
-        <v>7.38933395449041</v>
+        <v>6.15555390541513</v>
       </c>
       <c r="D93">
-        <v>6.393015257520863</v>
+        <v>6.854922688094567</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>6.995646348072668</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3.936658001028659</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5.926045410047644</v>
+        <v>4.190350609066724</v>
       </c>
       <c r="C94">
-        <v>7.477944785515186</v>
+        <v>6.23145637282385</v>
       </c>
       <c r="D94">
-        <v>6.471986642922091</v>
+        <v>6.928993728230147</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>7.076785081434257</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3.994807290086169</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.008884709600577</v>
+        <v>4.254344629976248</v>
       </c>
       <c r="C95">
-        <v>7.565966145196167</v>
+        <v>6.306461071409335</v>
       </c>
       <c r="D95">
-        <v>6.550796289580923</v>
+        <v>7.002410403882916</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>7.157069346935709</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>4.05272708268453</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.091151304876147</v>
+        <v>4.318170053730965</v>
       </c>
       <c r="C96">
-        <v>7.653392383345146</v>
+        <v>6.380555297997206</v>
       </c>
       <c r="D96">
-        <v>6.629434491047496</v>
+        <v>7.075153550751525</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>7.236448748360069</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>4.110407630361038</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6.172834842861677</v>
+        <v>4.38182077202757</v>
       </c>
       <c r="C97">
-        <v>7.740218914658993</v>
+        <v>6.453730460825582</v>
       </c>
       <c r="D97">
-        <v>6.707892484843615</v>
+        <v>7.147206602465222</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>7.314880295911282</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>4.167841091722738</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.253926824533086</v>
+        <v>4.445291822146085</v>
       </c>
       <c r="C98">
-        <v>7.826442135125744</v>
+        <v>6.525981442826124</v>
       </c>
       <c r="D98">
-        <v>6.786162380076763</v>
+        <v>7.218555414031983</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>7.392327768322042</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>4.225021144486019</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6.334420353927242</v>
+        <v>4.50857918822056</v>
       </c>
       <c r="C99">
-        <v>7.912059344976156</v>
+        <v>6.597306014434086</v>
       </c>
       <c r="D99">
-        <v>6.864237090304725</v>
+        <v>7.289188071072985</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>7.468760957898162</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>4.28194268152293</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6.414309929658292</v>
+        <v>4.571679660483898</v>
       </c>
       <c r="C100">
-        <v>7.997068677556519</v>
+        <v>6.667704363854019</v>
       </c>
       <c r="D100">
-        <v>6.942110271376893</v>
+        <v>7.359094699462056</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>7.544154987643291</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>4.338601569137095</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6.493591270478602</v>
+        <v>4.63459069441737</v>
       </c>
       <c r="C101">
-        <v>8.081469033577653</v>
+        <v>6.737178752084497</v>
       </c>
       <c r="D101">
-        <v>7.019776263959368</v>
+        <v>7.428267308284406</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>7.618489788985795</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>4.39499449344047</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6.572261168269625</v>
+        <v>4.697310273407297</v>
       </c>
       <c r="C102">
-        <v>8.165260020261616</v>
+        <v>6.805733205158085</v>
       </c>
       <c r="D102">
-        <v>7.097230040443657</v>
+        <v>7.496699644723004</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>7.691749644070967</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>4.451118820035233</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6.650317363244569</v>
+        <v>4.759836831183743</v>
       </c>
       <c r="C103">
-        <v>8.248441894964028</v>
+        <v>6.873373238405867</v>
       </c>
       <c r="D103">
-        <v>7.174467155940114</v>
+        <v>7.564387049762142</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>7.763922714287295</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>4.506972473771018</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6.727758437236607</v>
+        <v>4.822169183139156</v>
       </c>
       <c r="C104">
-        <v>8.331015512897597</v>
+        <v>6.940105638639345</v>
       </c>
       <c r="D104">
-        <v>7.251483703064325</v>
+        <v>7.631326320909959</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>7.835000581560039</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>4.562553853098585</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6.804583721801736</v>
+        <v>4.88430645503141</v>
       </c>
       <c r="C105">
-        <v>8.412982278624233</v>
+        <v>7.00593824955221</v>
       </c>
       <c r="D105">
-        <v>7.328276270235923</v>
+        <v>7.697515588535142</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>7.904977887035554</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>4.617861752337838</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6.880793218528347</v>
+        <v>4.94624802999248</v>
       </c>
       <c r="C106">
-        <v>8.494344101014841</v>
+        <v>7.070879831407342</v>
       </c>
       <c r="D106">
-        <v>7.404841903223173</v>
+        <v>7.762954188601608</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>7.97385188945088</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>4.672895305212031</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6.956387529473584</v>
+        <v>5.00799351463336</v>
       </c>
       <c r="C107">
-        <v>8.575103351409869</v>
+        <v>7.134939947914432</v>
       </c>
       <c r="D107">
-        <v>7.481178069681997</v>
+        <v>7.827642571700943</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>8.041622293326025</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>4.727653937145144</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.03136779607157</v>
+        <v>5.069542711694462</v>
       </c>
       <c r="C108">
-        <v>8.655262824744991</v>
+        <v>7.198128832272223</v>
       </c>
       <c r="D108">
-        <v>7.55728262645419</v>
+        <v>7.89158219918585</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>8.108290707269447</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>4.782137325369428</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.10573564514559</v>
+        <v>5.130895593455405</v>
       </c>
       <c r="C109">
-        <v>8.734825703409728</v>
+        <v>7.260457286316101</v>
       </c>
       <c r="D109">
-        <v>7.63315378940624</v>
+        <v>7.954775441601639</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>8.173860765737881</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>4.836345363994217</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.179493140949307</v>
+        <v>5.192052277833553</v>
       </c>
       <c r="C110">
-        <v>8.813795523649466</v>
+        <v>7.321936587703533</v>
       </c>
       <c r="D110">
-        <v>7.708790105603822</v>
+        <v>8.017225514413145</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>8.238337754957026</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>4.890278145638243</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.252642742348464</v>
+        <v>5.253013009509524</v>
       </c>
       <c r="C111">
-        <v>8.892176144325147</v>
+        <v>7.382578408610494</v>
       </c>
       <c r="D111">
-        <v>7.784190427636239</v>
+        <v>8.078936386061146</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>8.30172838830604</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>4.943935937087675</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.32518726441397</v>
+        <v>5.313778139548185</v>
       </c>
       <c r="C112">
-        <v>8.969971717864036</v>
+        <v>7.442394750411499</v>
       </c>
       <c r="D112">
-        <v>7.859353889919056</v>
+        <v>8.139912702649369</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>8.364040615650584</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>4.997319154121238</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.39712984383006</v>
+        <v>5.374348119323876</v>
       </c>
       <c r="C113">
-        <v>9.047186663248667</v>
+        <v>7.501397885890657</v>
       </c>
       <c r="D113">
-        <v>7.934279886811382</v>
+        <v>8.200159726966257</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>8.425283531841634</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>5.050428348187036</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7.468473907622291</v>
+        <v>5.434723477006437</v>
       </c>
       <c r="C114">
-        <v>9.123825640902874</v>
+        <v>7.55960030378566</v>
       </c>
       <c r="D114">
-        <v>8.008968052404766</v>
+        <v>8.259683276198464</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>8.485467056285671</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>5.103264189862472</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7.539223144791478</v>
+        <v>5.4949048242864</v>
       </c>
       <c r="C115">
-        <v>9.199893529344827</v>
+        <v>7.617014669403495</v>
       </c>
       <c r="D115">
-        <v>8.083418241849095</v>
+        <v>8.318489659572645</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>8.544602021252</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>5.155827457829483</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7.60938148050885</v>
+        <v>5.55489283663505</v>
       </c>
       <c r="C116">
-        <v>9.275395403486757</v>
+        <v>7.673653776236288</v>
       </c>
       <c r="D116">
-        <v>8.157630514091929</v>
+        <v>8.376585632410428</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>8.602699942551205</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>5.208119033447509</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7.678953052579883</v>
+        <v>5.614688255202153</v>
       </c>
       <c r="C117">
-        <v>9.350336514470094</v>
+        <v>7.729530510804466</v>
       </c>
       <c r="D117">
-        <v>8.231605115918809</v>
+        <v>8.4339783472844</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>8.659773055690398</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>5.260139889197585</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7.747942189928024</v>
+        <v>5.674291878395521</v>
       </c>
       <c r="C118">
-        <v>9.424722270932698</v>
+        <v>7.784657817762839</v>
       </c>
       <c r="D118">
-        <v>8.305342467191016</v>
+        <v>8.490675306098479</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>8.715834107312721</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>5.311891080838224</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7.816353392872264</v>
+        <v>5.73370455436344</v>
       </c>
       <c r="C119">
-        <v>9.49855822161213</v>
+        <v>7.839048673112735</v>
       </c>
       <c r="D119">
-        <v>8.378843147186569</v>
+        <v>8.546684319704696</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>8.770896301730353</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>5.363373740182871</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7.88419131506327</v>
+        <v>5.792927178562065</v>
       </c>
       <c r="C120">
-        <v>9.571850039195821</v>
+        <v>7.892716058673548</v>
       </c>
       <c r="D120">
-        <v>8.452107881957453</v>
+        <v>8.602013472681692</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>8.824973202825699</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>5.414589067646981</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7.951460746853459</v>
+        <v>5.851960685860473</v>
       </c>
       <c r="C121">
-        <v>9.644603505335018</v>
+        <v>7.945672938284527</v>
       </c>
       <c r="D121">
-        <v>8.525137532623797</v>
+        <v>8.656671087239333</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>8.878078687186152</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>5.465538323359312</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.018166600010835</v>
+        <v>5.910806050079764</v>
       </c>
       <c r="C122">
-        <v>9.716824496745135</v>
+        <v>7.99793223708124</v>
       </c>
       <c r="D122">
-        <v>8.597933084532166</v>
+        <v>8.710665687936514</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>8.930226900362291</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>5.516222833485608</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.084313893639496</v>
+        <v>5.969464275553976</v>
       </c>
       <c r="C123">
-        <v>9.788518972320338</v>
+        <v>8.049506824938394</v>
       </c>
       <c r="D123">
-        <v>8.670495637211706</v>
+        <v>8.764005978175122</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>8.981432199310795</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>5.566643959770606</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.149907741202203</v>
+        <v>6.027936401543199</v>
       </c>
       <c r="C124">
-        <v>9.859692961194979</v>
+        <v>8.100409498639703</v>
       </c>
       <c r="D124">
-        <v>8.742826395067741</v>
+        <v>8.816700810383178</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>9.031709113394712</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>5.616803135266048</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.214953338550297</v>
+        <v>6.086223491708052</v>
       </c>
       <c r="C125">
-        <v>9.93035255168906</v>
+        <v>8.15065296562641</v>
       </c>
       <c r="D125">
-        <v>8.814926658747572</v>
+        <v>8.868759159259197</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>9.081072294580723</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>5.666701815233534</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.279455952878187</v>
+        <v>6.144326639927987</v>
       </c>
       <c r="C126">
-        <v>10.00050388107903</v>
+        <v>8.200249834747103</v>
       </c>
       <c r="D126">
-        <v>8.886797817149004</v>
+        <v>8.920190102433637</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>9.129536477530442</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>5.716341507706433</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.343420912527526</v>
+        <v>6.202246961533713</v>
       </c>
       <c r="C127">
-        <v>10.07015312613898</v>
+        <v>8.24921259547205</v>
       </c>
       <c r="D127">
-        <v>8.958441340000084</v>
+        <v>8.971002798453808</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>9.177116459297521</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>5.765723759756462</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.406853597572866</v>
+        <v>6.259985595824036</v>
       </c>
       <c r="C128">
-        <v>10.139306494401</v>
+        <v>8.297553626735596</v>
       </c>
       <c r="D128">
-        <v>9.029858770977887</v>
+        <v>9.021206466087628</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>9.223827036597834</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>5.814850146317921</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.46975943112716</v>
+        <v>6.317543701294773</v>
       </c>
       <c r="C129">
-        <v>10.20797021608678</v>
+        <v>8.345285164443235</v>
       </c>
       <c r="D129">
-        <v>9.101051721327661</v>
+        <v>9.070810368619775</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>9.269683018061762</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>5.863722282025738</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.53214387131456</v>
+        <v>6.374922454978021</v>
       </c>
       <c r="C130">
-        <v>10.27615053666553</v>
+        <v>8.392419322096824</v>
       </c>
       <c r="D130">
-        <v>9.172021863940815</v>
+        <v>9.119823797874922</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>9.314699169360182</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>5.912341804487753</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.594012403858292</v>
+        <v>6.432123050584218</v>
       </c>
       <c r="C131">
-        <v>10.34385370999644</v>
+        <v>8.438968058002489</v>
       </c>
       <c r="D131">
-        <v>9.242770927861139</v>
+        <v>9.168256058521784</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>9.358890180440339</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>5.960710381028605</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.655370535238772</v>
+        <v>6.489146696548748</v>
       </c>
       <c r="C132">
-        <v>10.41108599201628</v>
+        <v>8.484943191426206</v>
       </c>
       <c r="D132">
-        <v>9.313300693186374</v>
+        <v>9.216116456075547</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>9.402270726674235</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>6.008829700184847</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.716223786379654</v>
+        <v>6.545994615638379</v>
       </c>
       <c r="C133">
-        <v>10.47785363493562</v>
+        <v>8.530356381063745</v>
       </c>
       <c r="D133">
-        <v>9.383612986336754</v>
+        <v>9.263414286428322</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>9.44485531705169</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>6.056701473454775</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>8.776577686824773</v>
+        <v>6.602668042308998</v>
       </c>
       <c r="C134">
-        <v>10.54416288190926</v>
+        <v>8.575219132011073</v>
       </c>
       <c r="D134">
-        <v>9.45370967566441</v>
+        <v>9.310158814786714</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>9.486658442544211</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>6.104327430237285</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>8.836437769369832</v>
+        <v>6.659168223254215</v>
       </c>
       <c r="C135">
-        <v>10.61001996214879</v>
+        <v>8.619542784064301</v>
       </c>
       <c r="D135">
-        <v>9.52359266737847</v>
+        <v>9.356359286744167</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>9.527694409264249</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>6.151709316896683</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.895809565116428</v>
+        <v>6.715496414551715</v>
       </c>
       <c r="C136">
-        <v>10.67543108644717</v>
+        <v>8.663338515843092</v>
       </c>
       <c r="D136">
-        <v>9.593263901763549</v>
+        <v>9.402024881406794</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>9.567977445517192</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>6.198848897214982</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>8.95469859891918</v>
+        <v>6.771653882114975</v>
       </c>
       <c r="C137">
-        <v>10.74040244308737</v>
+        <v>8.70661733576215</v>
       </c>
       <c r="D137">
-        <v>9.662725349670669</v>
+        <v>9.44716475586355</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>9.607521609951112</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>6.245747945341659</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.013110385198187</v>
+        <v>6.827641899520605</v>
       </c>
       <c r="C138">
-        <v>10.80494019410865</v>
+        <v>8.749390088836941</v>
       </c>
       <c r="D138">
-        <v>9.73197900926111</v>
+        <v>9.491787981837239</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>9.646340827975694</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>6.292408251552506</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9.071050424091249</v>
+        <v>6.88346174786891</v>
       </c>
       <c r="C139">
-        <v>10.86905047190597</v>
+        <v>8.791667446605217</v>
       </c>
       <c r="D139">
-        <v>9.80102690298544</v>
+        <v>9.535903581742502</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>9.684448857242334</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>6.338831613224643</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9.12852419792172</v>
+        <v>6.939114714255641</v>
       </c>
       <c r="C140">
-        <v>10.93273937613942</v>
+        <v>8.833459915885038</v>
       </c>
       <c r="D140">
-        <v>9.869871074781212</v>
+        <v>9.579520506669409</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>9.721859292397605</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>6.385019839328973</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.185537167961169</v>
+        <v>6.994602091470747</v>
       </c>
       <c r="C141">
-        <v>10.99601297093237</v>
+        <v>8.874777829777312</v>
       </c>
       <c r="D141">
-        <v>9.938513587473794</v>
+        <v>9.622647625180612</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>9.758585555335271</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>6.430974745446258</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.242094771465606</v>
+        <v>7.049925176728663</v>
       </c>
       <c r="C142">
-        <v>11.05887728233794</v>
+        <v>8.915631355098679</v>
       </c>
       <c r="D142">
-        <v>10.00695652036621</v>
+        <v>9.665293735446165</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>9.79464088289447</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>6.476698153846334</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.298202418966646</v>
+        <v>7.105085271397183</v>
       </c>
       <c r="C143">
-        <v>11.12133829605519</v>
+        <v>8.95603048656853</v>
       </c>
       <c r="D143">
-        <v>10.07520196700482</v>
+        <v>9.707467540586965</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>9.830038344484027</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>6.52219189237545</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.353865491799791</v>
+        <v>7.160083679927324</v>
       </c>
       <c r="C144">
-        <v>11.18340195537739</v>
+        <v>8.995985052231598</v>
       </c>
       <c r="D144">
-        <v>10.14325203310849</v>
+        <v>9.749177662709428</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>9.864790805240371</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>6.567457792105127</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.409089339853997</v>
+        <v>7.214921709482806</v>
       </c>
       <c r="C145">
-        <v>11.24507415935584</v>
+        <v>9.035504710132637</v>
       </c>
       <c r="D145">
-        <v>10.21110883465005</v>
+        <v>9.790432623219459</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>9.898910961575179</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>6.612497688178251</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.46387927952679</v>
+        <v>7.269600669171574</v>
       </c>
       <c r="C146">
-        <v>11.30636076116399</v>
+        <v>9.074598953148762</v>
       </c>
       <c r="D146">
-        <v>10.27877449607952</v>
+        <v>9.831240857023536</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>9.932411301910985</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>6.657313416147254</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.518240591870635</v>
+        <v>7.324121869468703</v>
       </c>
       <c r="C147">
-        <v>11.36726756664736</v>
+        <v>9.113277106600037</v>
       </c>
       <c r="D147">
-        <v>10.34625114867914</v>
+        <v>9.871610691954427</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>9.965304135583827</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>6.701906814285614</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.572178520917747</v>
+        <v>7.378486622054266</v>
       </c>
       <c r="C148">
-        <v>11.427800333046</v>
+        <v>9.151548333449337</v>
       </c>
       <c r="D148">
-        <v>10.41354092904128</v>
+        <v>9.911550361977287</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>9.997601567452962</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>6.746279719327632</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.625698272170675</v>
+        <v>7.432696238488658</v>
       </c>
       <c r="C149">
-        <v>11.48796476787681</v>
+        <v>9.189421632262313</v>
       </c>
       <c r="D149">
-        <v>10.48064597766075</v>
+        <v>9.951067996860383</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>10.02931551257648</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>6.790433968117982</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.678805011247229</v>
+        <v>7.486752029852744</v>
       </c>
       <c r="C150">
-        <v>11.54776652796395</v>
+        <v>9.226905842487863</v>
       </c>
       <c r="D150">
-        <v>10.54756843763343</v>
+        <v>9.990171622032442</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>10.0604576864669</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>6.834371395957314</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.731503862668731</v>
+        <v>7.540655308168592</v>
       </c>
       <c r="C151">
-        <v>11.60721121860679</v>
+        <v>9.264009643150763</v>
       </c>
       <c r="D151">
-        <v>10.61431045345441</v>
+        <v>10.02886916206294</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>10.0910396080504</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>6.878093835277086</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.783799908782013</v>
+        <v>7.594407382339949</v>
       </c>
       <c r="C152">
-        <v>11.66630439287453</v>
+        <v>9.300741557587685</v>
       </c>
       <c r="D152">
-        <v>10.68087416990836</v>
+        <v>10.06716843135955</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>10.12107260065568</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>6.921603116339469</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.835698188805413</v>
+        <v>7.648009559961383</v>
       </c>
       <c r="C153">
-        <v>11.7250515510185</v>
+        <v>9.337109953171531</v>
       </c>
       <c r="D153">
-        <v>10.74726173104598</v>
+        <v>10.10507714319814</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>10.15056778751138</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>6.964901064763539</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.887203697990078</v>
+        <v>7.701463149077298</v>
       </c>
       <c r="C154">
-        <v>11.78345813999301</v>
+        <v>9.373123045394806</v>
       </c>
       <c r="D154">
-        <v>10.81347527924074</v>
+        <v>10.14260289932757</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>10.17953610098516</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>7.00798950281799</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.938321386888362</v>
+        <v>7.754769452574431</v>
       </c>
       <c r="C155">
-        <v>11.84152955307643</v>
+        <v>9.408788898421177</v>
       </c>
       <c r="D155">
-        <v>10.87951695432027</v>
+        <v>10.17975319891246</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>10.20798827246073</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>7.050870246979268</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.989056160721848</v>
+        <v>7.80792977151326</v>
       </c>
       <c r="C156">
-        <v>11.89927112958484</v>
+        <v>9.444115428809118</v>
       </c>
       <c r="D156">
-        <v>10.94538889276732</v>
+        <v>10.21653542994417</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>10.23593484576705</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>7.09354510886765</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.0394128788417</v>
+        <v>7.860945405922673</v>
       </c>
       <c r="C157">
-        <v>11.95668815467094</v>
+        <v>9.47911040652024</v>
       </c>
       <c r="D157">
-        <v>11.01109322698567</v>
+        <v>10.25295687605406</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>10.26338616658163</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>7.136015893871093</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.08939635427455</v>
+        <v>7.913817650276632</v>
       </c>
       <c r="C158">
-        <v>12.01378585920144</v>
+        <v>9.513781458489973</v>
       </c>
       <c r="D158">
-        <v>11.07663208462635</v>
+        <v>10.28902471231649</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>10.29035239457725</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>7.178284400812086</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.139011353348</v>
+        <v>7.966547796365593</v>
       </c>
       <c r="C159">
-        <v>12.07056941970678</v>
+        <v>9.548136069929807</v>
       </c>
       <c r="D159">
-        <v>11.14200758797024</v>
+        <v>10.32474600727492</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>10.31684349642911</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>7.220352422011945</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.18826259538963</v>
+        <v>8.019137133137475</v>
       </c>
       <c r="C160">
-        <v>12.12704395839714</v>
+        <v>9.582181587705049</v>
       </c>
       <c r="D160">
-        <v>11.20722185336298</v>
+        <v>10.36012772423438</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>10.34286925350929</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>7.262221741851481</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.23715475249429</v>
+        <v>8.071586944229065</v>
       </c>
       <c r="C161">
-        <v>12.18321454323945</v>
+        <v>9.615925221957456</v>
       </c>
       <c r="D161">
-        <v>11.27227699069883</v>
+        <v>10.39517671904745</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>10.368439260933</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>7.303894137708996</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.28569244935431</v>
+        <v>8.123898509559673</v>
       </c>
       <c r="C162">
-        <v>12.2390861880902</v>
+        <v>9.64937404918663</v>
       </c>
       <c r="D162">
-        <v>11.33717510294989</v>
+        <v>10.42989974480406</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>10.39356293006646</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>7.345371378167571</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.33388026314818</v>
+        <v>8.176073104952001</v>
       </c>
       <c r="C163">
-        <v>12.29466385287931</v>
+        <v>9.682535014208492</v>
       </c>
       <c r="D163">
-        <v>11.40191828573781</v>
+        <v>10.46430344804368</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>10.41824949177953</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>7.386655223958243</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.38172272348316</v>
+        <v>8.228112000756443</v>
       </c>
       <c r="C164">
-        <v>12.34995244384073</v>
+        <v>9.715414932935882</v>
       </c>
       <c r="D164">
-        <v>11.46650862694481</v>
+        <v>10.4983943741571</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>10.44250799652558</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>7.427747426705183</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.4292243123881</v>
+        <v>8.280016462874533</v>
       </c>
       <c r="C165">
-        <v>12.40495681378555</v>
+        <v>9.748020494596647</v>
       </c>
       <c r="D165">
-        <v>11.53094820636157</v>
+        <v>10.53217896413415</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>10.46634731966439</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>7.46864972908898</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.47638946435019</v>
+        <v>8.33178775230574</v>
       </c>
       <c r="C166">
-        <v>12.45968176241395</v>
+        <v>9.780358264284905</v>
       </c>
       <c r="D166">
-        <v>11.5952390953692</v>
+        <v>10.56566355892388</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>10.48977616044708</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>7.509363864619304</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.52322256639584</v>
+        <v>8.383427124133675</v>
       </c>
       <c r="C167">
-        <v>12.51413203666222</v>
+        <v>9.812434685338006</v>
       </c>
       <c r="D167">
-        <v>11.65938335665301</v>
+        <v>10.59885439817347</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>10.51280304803127</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>7.549891556929924</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.56972795821098</v>
+        <v>8.434935828603066</v>
       </c>
       <c r="C168">
-        <v>12.56831233108179</v>
+        <v>9.844256081711485</v>
       </c>
       <c r="D168">
-        <v>11.72338304394604</v>
+        <v>10.63175762247409</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>10.53543634069391</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>7.590234520258472</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.61590993229631</v>
+        <v>8.486315110410187</v>
       </c>
       <c r="C169">
-        <v>12.62222728824703</v>
+        <v>9.87582866045889</v>
       </c>
       <c r="D169">
-        <v>11.78724020179994</v>
+        <v>10.66437927443954</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>10.55768423115075</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>7.630394458363466</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.6617727341537</v>
+        <v>8.537566207985437</v>
       </c>
       <c r="C170">
-        <v>12.67588149918899</v>
+        <v>9.907158513935491</v>
       </c>
       <c r="D170">
-        <v>11.85095686538163</v>
+        <v>10.69672529914232</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>10.57955474710178</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>7.67037306526922</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.7073205625054</v>
+        <v>8.588690354608511</v>
       </c>
       <c r="C171">
-        <v>12.72927950385251</v>
+        <v>9.938251622364362</v>
       </c>
       <c r="D171">
-        <v>11.91453506029375</v>
+        <v>10.72880154663554</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>10.60105575503736</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>7.710172024190819</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.75255756953897</v>
+        <v>8.639688777430354</v>
       </c>
       <c r="C172">
-        <v>12.78242579157419</v>
+        <v>9.969113855861398</v>
       </c>
       <c r="D172">
-        <v>11.9779768024175</v>
+        <v>10.76061377164421</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>10.62219496243319</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>7.749793008008489</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.79748786117815</v>
+        <v>8.690562697209584</v>
       </c>
       <c r="C173">
-        <v>12.8353248015789</v>
+        <v>9.999750977071701</v>
       </c>
       <c r="D173">
-        <v>12.04128409777522</v>
+        <v>10.79216763651153</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>10.64297992044374</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>7.789237678890043</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.84211549737604</v>
+        <v>8.741313329162583</v>
       </c>
       <c r="C174">
-        <v>12.88798092349282</v>
+        <v>10.03016864302647</v>
       </c>
       <c r="D174">
-        <v>12.10445894241253</v>
+        <v>10.8234687109462</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>10.66341802679857</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>7.828507688013568</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.88644449242977</v>
+        <v>8.791941881941336</v>
       </c>
       <c r="C175">
-        <v>12.940398497871</v>
+        <v>10.06037240774345</v>
       </c>
       <c r="D175">
-        <v>12.1675033222992</v>
+        <v>10.85452247467726</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>10.68351652751286</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>7.86760467582904</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.93047881531339</v>
+        <v>8.842449557743427</v>
       </c>
       <c r="C176">
-        <v>12.99258181673757</v>
+        <v>10.09036772376906</v>
       </c>
       <c r="D176">
-        <v>12.23041921324558</v>
+        <v>10.88533431782996</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>10.70328252030607</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>7.906530271418915</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.97422239002836</v>
+        <v>8.892837552882813</v>
       </c>
       <c r="C177">
-        <v>13.04453512413712</v>
+        <v>10.12015994557816</v>
       </c>
       <c r="D177">
-        <v>12.29320858083401</v>
+        <v>10.91590954283526</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>10.72272295832314</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>7.945286093001674</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>11.01767909596906</v>
+        <v>8.9431070567845</v>
       </c>
       <c r="C178">
-        <v>13.09626261669535</v>
+        <v>10.14975433089277</v>
       </c>
       <c r="D178">
-        <v>12.35587338036483</v>
+        <v>10.94625336565129</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>10.741844649817</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>7.983873747247999</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>11.06085276830247</v>
+        <v>8.99325925235075</v>
       </c>
       <c r="C179">
-        <v>13.14776844418792</v>
+        <v>10.17915604166064</v>
       </c>
       <c r="D179">
-        <v>12.41841555681602</v>
+        <v>10.97637091699908</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>10.76065426277921</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>8.022294829864272</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>11.10374719835997</v>
+        <v>9.043295316371459</v>
       </c>
       <c r="C180">
-        <v>13.19905671011594</v>
+        <v>10.20837014947196</v>
       </c>
       <c r="D180">
-        <v>12.48083704481403</v>
+        <v>11.0062672440168</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>10.77915832889504</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>8.060550924944494</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>11.14636613404037</v>
+        <v>9.093216418514187</v>
       </c>
       <c r="C181">
-        <v>13.25013147228693</v>
+        <v>10.23740163499154</v>
       </c>
       <c r="D181">
-        <v>12.54313976861685</v>
+        <v>11.03594731132531</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>10.79736324318358</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>8.098643604850018</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>11.18871328022259</v>
+        <v>9.143023721874219</v>
       </c>
       <c r="C182">
-        <v>13.30099674340015</v>
+        <v>10.26625538758422</v>
       </c>
       <c r="D182">
-        <v>12.60532564210675</v>
+        <v>11.06541600270349</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>10.81527526819571</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>8.136574430640344</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>11.23079229918703</v>
+        <v>9.19271838322955</v>
       </c>
       <c r="C183">
-        <v>13.35165649163524</v>
+        <v>10.29493621392869</v>
       </c>
       <c r="D183">
-        <v>12.66739656879334</v>
+        <v>11.09467812223577</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>10.83290053637886</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>8.174344952619299</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>11.27260681104444</v>
+        <v>9.242301552164223</v>
       </c>
       <c r="C184">
-        <v>13.40211464124319</v>
+        <v>10.32344883514726</v>
       </c>
       <c r="D184">
-        <v>12.72935444182496</v>
+        <v>11.12373839583004</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>10.85024505267997</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>8.211956708049533</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>11.31416039417126</v>
+        <v>9.291774371621939</v>
       </c>
       <c r="C185">
-        <v>13.45237507313884</v>
+        <v>10.35179788679271</v>
       </c>
       <c r="D185">
-        <v>12.79120114400879</v>
+        <v>11.1526014725358</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>10.86731469735428</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>8.249411222726074</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>11.35545658565065</v>
+        <v>9.341137978056056</v>
       </c>
       <c r="C186">
-        <v>13.50244162549402</v>
+        <v>10.37998792713909</v>
       </c>
       <c r="D186">
-        <v>12.85293854783825</v>
+        <v>11.1812719258881</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>10.88411522779913</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>8.286710012551952</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11.3964988817181</v>
+        <v>9.390393500741508</v>
       </c>
       <c r="C187">
-        <v>13.55231809433055</v>
+        <v>10.40802343456945</v>
       </c>
       <c r="D187">
-        <v>12.9145685155275</v>
+        <v>11.20975425530492</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>10.90065227952746</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>8.323854580189256</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.43729073821104</v>
+        <v>9.439542062266074</v>
       </c>
       <c r="C188">
-        <v>13.6020082341126</v>
+        <v>10.43590880793984</v>
       </c>
       <c r="D188">
-        <v>12.97609289905249</v>
+        <v>11.23805288734107</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>10.91693137286823</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>8.360846416553358</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.47783557102158</v>
+        <v>9.488584778584615</v>
       </c>
       <c r="C189">
-        <v>13.6515157583376</v>
+        <v>10.46364837344994</v>
       </c>
       <c r="D189">
-        <v>13.03751354019771</v>
+        <v>11.26617217699511</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>10.93295791242743</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>8.397687001503117</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.51813675655174</v>
+        <v>9.537522758536287</v>
       </c>
       <c r="C190">
-        <v>13.70084434012522</v>
+        <v>10.49124638297211</v>
       </c>
       <c r="D190">
-        <v>13.09883227060867</v>
+        <v>11.29411640939928</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>10.94873718630355</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>8.434377804090927</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.55819763217045</v>
+        <v>9.586357104247819</v>
       </c>
       <c r="C191">
-        <v>13.7499976128039</v>
+        <v>10.51870701408784</v>
       </c>
       <c r="D191">
-        <v>13.16005091184912</v>
+        <v>11.32188980087865</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>10.96427437543079</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>8.470920280295699</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.5980214966719</v>
+        <v>9.635088911126116</v>
       </c>
       <c r="C192">
-        <v>13.79897917049442</v>
+        <v>10.54603437667046</v>
       </c>
       <c r="D192">
-        <v>13.22117127546309</v>
+        <v>11.34949649947048</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>10.97957455184728</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>8.507315874906174</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.6376116107345</v>
+        <v>9.683719267532524</v>
       </c>
       <c r="C193">
-        <v>13.84779256869018</v>
+        <v>10.57323251137096</v>
       </c>
       <c r="D193">
-        <v>13.28219516304086</v>
+        <v>11.37694058808612</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>10.99464267963368</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>8.543566022088715</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.67697119738009</v>
+        <v>9.732249255125001</v>
       </c>
       <c r="C194">
-        <v>13.89644132483362</v>
+        <v>10.60030538959019</v>
       </c>
       <c r="D194">
-        <v>13.34312436628903</v>
+        <v>11.40422608463208</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>11.00948361900244</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>8.579672143526718</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.71610344243284</v>
+        <v>9.780679948803163</v>
       </c>
       <c r="C195">
-        <v>13.94492891888863</v>
+        <v>10.62725691968797</v>
       </c>
       <c r="D195">
-        <v>13.40396066710381</v>
+        <v>11.43135694200692</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>11.02410213022514</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>8.615635649562758</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.75501149497752</v>
+        <v>9.829012416498395</v>
       </c>
       <c r="C196">
-        <v>13.99325879390852</v>
+        <v>10.6540909456481</v>
       </c>
       <c r="D196">
-        <v>13.4647058376477</v>
+        <v>11.45833705131635</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>11.03850287275749</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>8.651457939254389</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.79369846781666</v>
+        <v>9.877247719477516</v>
       </c>
       <c r="C197">
-        <v>14.04143435659916</v>
+        <v>10.68081124586998</v>
       </c>
       <c r="D197">
-        <v>13.52536164042893</v>
+        <v>11.48517024319944</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>11.05269040614876</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>8.687140400368165</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.8321674379262</v>
+        <v>9.925386912242203</v>
       </c>
       <c r="C198">
-        <v>14.08945897787732</v>
+        <v>10.7074215408999</v>
       </c>
       <c r="D198">
-        <v>13.58592982838349</v>
+        <v>11.51186028757963</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>11.06666919803561</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>8.722684408889245</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.87042144690954</v>
+        <v>9.973431042422293</v>
       </c>
       <c r="C199">
-        <v>14.1373359934243</v>
+        <v>10.7339254910225</v>
       </c>
       <c r="D199">
-        <v>13.64641214495961</v>
+        <v>11.53841089420875</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>11.08044362198819</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>8.7580913295249</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.90846350144932</v>
+        <v>10.02138115103733</v>
       </c>
       <c r="C200">
-        <v>14.18506870423331</v>
+        <v>10.76032669564126</v>
       </c>
       <c r="D200">
-        <v>13.7068103242042</v>
+        <v>11.56482571723103</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>11.09401795564288</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>8.793362516203551</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.94629657375705</v>
+        <v>10.06923827236163</v>
       </c>
       <c r="C201">
-        <v>14.2326603771512</v>
+        <v>10.78662869997627</v>
       </c>
       <c r="D201">
-        <v>13.76712609085138</v>
+        <v>11.5911083538345</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>11.10739639205213</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>8.828499310982808</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.98392360201992</v>
+        <v>10.11700343391092</v>
       </c>
       <c r="C202">
-        <v>14.28011424541518</v>
+        <v>10.8128349932</v>
       </c>
       <c r="D202">
-        <v>13.82736116041246</v>
+        <v>11.61726234388619</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>11.12058303564518</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>8.863503044849864</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.02134749084504</v>
+        <v>10.16467765665492</v>
       </c>
       <c r="C203">
-        <v>14.32743350918377</v>
+        <v>10.83894900788633</v>
       </c>
       <c r="D203">
-        <v>13.88751723926769</v>
+        <v>11.64329117498401</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>11.13358190286422</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>8.898375037859003</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.05857111170041</v>
+        <v>10.21226195486439</v>
       </c>
       <c r="C204">
-        <v>14.37462133606122</v>
+        <v>10.86497412586783</v>
       </c>
       <c r="D204">
-        <v>13.94759602475902</v>
+        <v>11.66919828135052</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>11.14639692689667</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>8.933116599051285</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.09559730335286</v>
+        <v>10.2597573361719</v>
       </c>
       <c r="C205">
-        <v>14.42168086161591</v>
+        <v>10.89091367700193</v>
       </c>
       <c r="D205">
-        <v>14.00759920528432</v>
+        <v>11.69498704425408</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>11.15903196078395</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>8.967729026103223</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.13242887230246</v>
+        <v>10.30716480174139</v>
       </c>
       <c r="C206">
-        <v>14.46861518989279</v>
+        <v>10.9167709387214</v>
       </c>
       <c r="D206">
-        <v>14.0675284603924</v>
+        <v>11.72066079361777</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>11.17149077592219</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>9.002213605834925</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.16906859321349</v>
+        <v>10.35448534610564</v>
       </c>
       <c r="C207">
-        <v>14.51542739391955</v>
+        <v>10.94254914084569</v>
       </c>
       <c r="D207">
-        <v>14.12738546087897</v>
+        <v>11.74622281083239</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>11.18377706309923</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>9.036571614557543</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.20551920934168</v>
+        <v>10.40171995728452</v>
       </c>
       <c r="C208">
-        <v>14.56212051620656</v>
+        <v>10.96825146509198</v>
       </c>
       <c r="D208">
-        <v>14.18717186888338</v>
+        <v>11.77167632792296</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>11.19589443982566</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>9.070804317290754</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.24178343295766</v>
+        <v>10.44886961691329</v>
       </c>
       <c r="C209">
-        <v>14.6086975692402</v>
+        <v>10.99388104436063</v>
       </c>
       <c r="D209">
-        <v>14.24688933798582</v>
+        <v>11.79702452738239</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>11.2078464477903</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>9.104912968404786</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.27786394576652</v>
+        <v>10.49593530009001</v>
       </c>
       <c r="C210">
-        <v>14.6551615359702</v>
+        <v>11.01944096713429</v>
       </c>
       <c r="D210">
-        <v>14.30653951330525</v>
+        <v>11.82227054698343</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>11.21963655092482</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>9.138898811712323</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.31376339932337</v>
+        <v>10.54291797552568</v>
       </c>
       <c r="C211">
-        <v>14.70151537029007</v>
+        <v>11.04493427734157</v>
       </c>
       <c r="D211">
-        <v>14.36612403159751</v>
+        <v>11.84741747823034</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>11.23126814617625</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>9.172763080388576</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.34948441544477</v>
+        <v>10.58981860562665</v>
       </c>
       <c r="C212">
-        <v>14.74776199751173</v>
+        <v>11.07036397354855</v>
       </c>
       <c r="D212">
-        <v>14.42564452135388</v>
+        <v>11.87246836601257</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>11.24274455918837</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>9.206506996910871</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.38502958661609</v>
+        <v>10.63663814639185</v>
       </c>
       <c r="C213">
-        <v>14.79390431483329</v>
+        <v>11.09573301282741</v>
       </c>
       <c r="D213">
-        <v>14.4851026028998</v>
+        <v>11.89742621219733</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>11.25406904437636</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>9.240131773331608</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.42040147639457</v>
+        <v>10.68337754754576</v>
       </c>
       <c r="C214">
-        <v>14.8399451918005</v>
+        <v>11.12104431101213</v>
       </c>
       <c r="D214">
-        <v>14.54449988849372</v>
+        <v>11.92229397633941</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>11.26524479001443</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>9.273638611459885</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.45560261980814</v>
+        <v>10.73003775260182</v>
       </c>
       <c r="C215">
-        <v>14.88588747076182</v>
+        <v>11.14630074178561</v>
       </c>
       <c r="D215">
-        <v>14.60383798242601</v>
+        <v>11.94707457509635</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>11.27627492012652</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>9.30702870255333</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.49063552374995</v>
+        <v>10.7766196988011</v>
       </c>
       <c r="C216">
-        <v>14.93173396731709</v>
+        <v>11.17150514008146</v>
       </c>
       <c r="D216">
-        <v>14.66311848111793</v>
+        <v>11.97177088269952</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>11.28716249295994</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>9.340303227656355</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.52550266736853</v>
+        <v>10.82312431722646</v>
       </c>
       <c r="C217">
-        <v>14.97748747075992</v>
+        <v>11.19666030267445</v>
       </c>
       <c r="D217">
-        <v>14.7223429732204</v>
+        <v>11.9963857350031</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>11.29791050209342</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>9.373463357667429</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.56020650245338</v>
+        <v>10.86955253285171</v>
       </c>
       <c r="C218">
-        <v>15.02315074451358</v>
+        <v>11.22176898726883</v>
       </c>
       <c r="D218">
-        <v>14.78151303971276</v>
+        <v>12.02092192798195</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>11.30852188281254</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>9.406510253337014</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.5947494538164</v>
+        <v>10.9159052645152</v>
       </c>
       <c r="C219">
-        <v>15.06872652656056</v>
+        <v>11.24683391537051</v>
       </c>
       <c r="D219">
-        <v>14.84063025400127</v>
+        <v>12.04538221680903</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>11.31899950944433</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>9.439445065327863</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.62913391966946</v>
+        <v>10.96218342501596</v>
       </c>
       <c r="C220">
-        <v>15.11421752986591</v>
+        <v>11.27185777318367</v>
       </c>
       <c r="D220">
-        <v>14.89969618201743</v>
+        <v>12.06976932116738</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>11.32934619413949</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>9.472268934350401</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.66336227199668</v>
+        <v>11.00838792115358</v>
       </c>
       <c r="C221">
-        <v>15.15962644279445</v>
+        <v>11.29684321071881</v>
       </c>
       <c r="D221">
-        <v>14.95871238231598</v>
+        <v>12.09408592336092</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>11.33956469552193</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>9.504982991296316</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.69743685692209</v>
+        <v>11.0545196537286</v>
       </c>
       <c r="C222">
-        <v>15.20495592952153</v>
+        <v>11.32179284421609</v>
       </c>
       <c r="D222">
-        <v>15.01768040617259</v>
+        <v>12.11833466867995</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>11.3496577151881</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>9.537588357121294</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.73135999507329</v>
+        <v>11.10057951762293</v>
       </c>
       <c r="C223">
-        <v>15.25020863043783</v>
+        <v>11.34670925727828</v>
       </c>
       <c r="D223">
-        <v>15.07660179768125</v>
+        <v>12.14251816684457</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>11.35962789745015</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>9.570086143059363</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.76513398194099</v>
+        <v>11.14656840183457</v>
       </c>
       <c r="C224">
-        <v>15.29538716254787</v>
+        <v>11.37159500000147</v>
       </c>
       <c r="D224">
-        <v>15.13547809385115</v>
+        <v>12.16663899420295</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>11.36947783425277</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>9.602477450707434</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.79876108823403</v>
+        <v>11.19248718949754</v>
       </c>
       <c r="C225">
-        <v>15.34049411986251</v>
+        <v>11.39645259101594</v>
       </c>
       <c r="D225">
-        <v>15.19431082470331</v>
+        <v>12.19069969281702</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>11.37921006596505</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>9.634763372036618</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.83224356022975</v>
+        <v>11.23833675794959</v>
       </c>
       <c r="C226">
-        <v>15.38553207378564</v>
+        <v>11.42128451880094</v>
       </c>
       <c r="D226">
-        <v>15.25310151336655</v>
+        <v>12.21470277010473</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>11.38882708022163</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>9.666944989480404</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.86558362012001</v>
+        <v>11.28411797876113</v>
       </c>
       <c r="C227">
-        <v>15.43050357349459</v>
+        <v>11.44609324082141</v>
       </c>
       <c r="D227">
-        <v>15.31185167617323</v>
+        <v>12.23865070317703</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>11.398331313146</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>9.69902337603193</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.89878346635285</v>
+        <v>11.32983171776796</v>
       </c>
       <c r="C228">
-        <v>15.4754111463148</v>
+        <v>11.47088118525488</v>
       </c>
       <c r="D228">
-        <v>15.37056282275438</v>
+        <v>12.26254593711736</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>11.40772515435326</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>9.730999595323404</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.93184527397001</v>
+        <v>11.3754788351222</v>
       </c>
       <c r="C229">
-        <v>15.52025729808852</v>
+        <v>11.49565075245653</v>
       </c>
       <c r="D229">
-        <v>15.42923645613424</v>
+        <v>12.2863908846442</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>11.41701094463493</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>9.762874701663868</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.96477119494</v>
+        <v>11.42106018534858</v>
       </c>
       <c r="C230">
-        <v>15.56504451353786</v>
+        <v>11.52040431409613</v>
       </c>
       <c r="D230">
-        <v>15.48787407282428</v>
+        <v>12.31018792918528</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>11.42619097502492</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>9.794649740142754</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.99756335848691</v>
+        <v>11.46657661743897</v>
       </c>
       <c r="C231">
-        <v>15.60977525662208</v>
+        <v>11.54514421460955</v>
       </c>
       <c r="D231">
-        <v>15.54647716291681</v>
+        <v>12.33393942510682</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>11.43526749400837</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>9.82632574668378</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>13.03022387141497</v>
+        <v>11.5120289747335</v>
       </c>
       <c r="C232">
-        <v>15.65445197088902</v>
+        <v>11.56987277277823</v>
       </c>
       <c r="D232">
-        <v>15.60504721017791</v>
+        <v>12.3576476972793</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>11.44424270446775</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>9.857903748139799</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.06275481842887</v>
+        <v>11.55741809509144</v>
       </c>
       <c r="C233">
-        <v>15.69907707982105</v>
+        <v>11.5945922808812</v>
       </c>
       <c r="D233">
-        <v>15.66358569213988</v>
+        <v>12.38131504151203</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>11.45311876322944</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>9.889384762358212</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.09515826245004</v>
+        <v>11.60274481089809</v>
       </c>
       <c r="C234">
-        <v>15.74365298717529</v>
+        <v>11.61930500590196</v>
       </c>
       <c r="D234">
-        <v>15.72209408019298</v>
+        <v>12.40494372753375</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>11.46189778574521</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>9.920769798243388</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.12743624492863</v>
+        <v>11.64800994905642</v>
       </c>
       <c r="C235">
-        <v>15.78818207731862</v>
+        <v>11.64401319118754</v>
       </c>
       <c r="D235">
-        <v>15.78057383967669</v>
+        <v>12.42853599784094</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>11.47058184603614</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>9.952059855822535</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.1595907861514</v>
+        <v>11.69321433111803</v>
       </c>
       <c r="C236">
-        <v>15.83266671555691</v>
+        <v>11.66871905508244</v>
       </c>
       <c r="D236">
-        <v>15.83902642997022</v>
+        <v>12.4520940669292</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>11.47917297590108</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>9.983255926359808</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>13.19162388554566</v>
+        <v>11.7383587732743</v>
       </c>
       <c r="C237">
-        <v>15.87710924845894</v>
+        <v>11.69342479244277</v>
       </c>
       <c r="D237">
-        <v>15.89745330458263</v>
+        <v>12.47562012547932</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>11.48767316622871</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>10.01435899239636</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.22353752197906</v>
+        <v>11.78344408639763</v>
       </c>
       <c r="C238">
-        <v>15.92151200417496</v>
+        <v>11.71813257721973</v>
       </c>
       <c r="D238">
-        <v>15.9558559112421</v>
+        <v>12.49911633866643</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>11.49608437065243</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>10.04537002777812</v>
       </c>
     </row>
   </sheetData>
